--- a/assignSchedule.xlsx
+++ b/assignSchedule.xlsx
@@ -1351,6 +1351,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:95">
       <c r="A1" t="s">
@@ -1649,7 +1653,7 @@
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="CB2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1677,7 +1681,7 @@
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="BD4" s="1" t="s">
+      <c r="AB4" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1691,7 +1695,7 @@
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="BY5" s="1" t="s">
+      <c r="X5" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1719,7 +1723,7 @@
       <c r="C7" t="s">
         <v>4</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="BY7" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1733,7 +1737,7 @@
       <c r="C8" t="s">
         <v>4</v>
       </c>
-      <c r="BC8" s="1" t="s">
+      <c r="AY8" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1775,7 +1779,7 @@
       <c r="C11" t="s">
         <v>4</v>
       </c>
-      <c r="BB11" s="1" t="s">
+      <c r="CK11" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1803,7 +1807,7 @@
       <c r="C13" t="s">
         <v>4</v>
       </c>
-      <c r="AX13" s="1" t="s">
+      <c r="BH13" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1831,7 +1835,7 @@
       <c r="C15" t="s">
         <v>4</v>
       </c>
-      <c r="AL15" s="1" t="s">
+      <c r="AD15" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -1845,11 +1849,11 @@
       <c r="C16" t="s">
         <v>4</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:91">
+      <c r="AX16" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="17" spans="1:90">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1859,11 +1863,11 @@
       <c r="C17" t="s">
         <v>4</v>
       </c>
-      <c r="AX17" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="18" spans="1:91">
+      <c r="BX17" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:90">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1877,7 +1881,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="19" spans="1:91">
+    <row r="19" spans="1:90">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1887,11 +1891,11 @@
       <c r="C19" t="s">
         <v>4</v>
       </c>
-      <c r="BF19" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="20" spans="1:91">
+      <c r="AK19" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="20" spans="1:90">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1901,11 +1905,11 @@
       <c r="C20" t="s">
         <v>4</v>
       </c>
-      <c r="CM20" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="21" spans="1:91">
+      <c r="AF20" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:90">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1919,7 +1923,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="22" spans="1:91">
+    <row r="22" spans="1:90">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1933,7 +1937,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="23" spans="1:91">
+    <row r="23" spans="1:90">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1947,7 +1951,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="24" spans="1:91">
+    <row r="24" spans="1:90">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1961,7 +1965,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="25" spans="1:91">
+    <row r="25" spans="1:90">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1975,7 +1979,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="26" spans="1:91">
+    <row r="26" spans="1:90">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1985,11 +1989,11 @@
       <c r="C26" t="s">
         <v>4</v>
       </c>
-      <c r="BQ26" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="27" spans="1:91">
+      <c r="BH26" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="1:90">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2003,7 +2007,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="28" spans="1:91">
+    <row r="28" spans="1:90">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2013,11 +2017,11 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
-      <c r="BK28" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="29" spans="1:91">
+      <c r="J28" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29" spans="1:90">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2027,11 +2031,11 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
-      <c r="J29" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="30" spans="1:91">
+      <c r="BK29" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="30" spans="1:90">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2041,11 +2045,11 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
-      <c r="BW30" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="31" spans="1:91">
+      <c r="BS30" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31" spans="1:90">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2059,7 +2063,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:91">
+    <row r="32" spans="1:90">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2073,7 +2077,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="33" spans="1:92">
+    <row r="33" spans="1:87">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2087,7 +2091,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="34" spans="1:92">
+    <row r="34" spans="1:87">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2101,7 +2105,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="35" spans="1:92">
+    <row r="35" spans="1:87">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2111,11 +2115,11 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
-      <c r="BI35" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="36" spans="1:92">
+      <c r="BS35" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36" spans="1:87">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2129,7 +2133,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="37" spans="1:92">
+    <row r="37" spans="1:87">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2143,7 +2147,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="38" spans="1:92">
+    <row r="38" spans="1:87">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2153,11 +2157,11 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
-      <c r="AD38" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="39" spans="1:92">
+      <c r="BC38" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="39" spans="1:87">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2167,11 +2171,11 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="AG39" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="40" spans="1:92">
+      <c r="AU39" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="40" spans="1:87">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2185,7 +2189,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:92">
+    <row r="41" spans="1:87">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2199,7 +2203,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="42" spans="1:92">
+    <row r="42" spans="1:87">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2209,11 +2213,11 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="43" spans="1:92">
+      <c r="O42" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="43" spans="1:87">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2223,11 +2227,11 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
-      <c r="CH43" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="44" spans="1:92">
+      <c r="CI43" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:87">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2241,7 +2245,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="45" spans="1:92">
+    <row r="45" spans="1:87">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2251,11 +2255,11 @@
       <c r="C45" t="s">
         <v>46</v>
       </c>
-      <c r="BW45" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="46" spans="1:92">
+      <c r="AT45" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46" spans="1:87">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2265,11 +2269,11 @@
       <c r="C46" t="s">
         <v>46</v>
       </c>
-      <c r="CN46" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="47" spans="1:92">
+      <c r="Q46" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="47" spans="1:87">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2283,7 +2287,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="48" spans="1:92">
+    <row r="48" spans="1:87">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2293,11 +2297,11 @@
       <c r="C48" t="s">
         <v>46</v>
       </c>
-      <c r="AK48" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="49" spans="1:73">
+      <c r="BU48" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="49" spans="1:91">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2307,11 +2311,11 @@
       <c r="C49" t="s">
         <v>46</v>
       </c>
-      <c r="BN49" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="50" spans="1:73">
+      <c r="BA49" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:91">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2325,7 +2329,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="51" spans="1:73">
+    <row r="51" spans="1:91">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2339,7 +2343,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="52" spans="1:73">
+    <row r="52" spans="1:91">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2353,7 +2357,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="53" spans="1:73">
+    <row r="53" spans="1:91">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2367,7 +2371,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="54" spans="1:73">
+    <row r="54" spans="1:91">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2377,11 +2381,11 @@
       <c r="C54" t="s">
         <v>46</v>
       </c>
-      <c r="AK54" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="55" spans="1:73">
+      <c r="AF54" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="55" spans="1:91">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2395,7 +2399,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="56" spans="1:73">
+    <row r="56" spans="1:91">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2409,7 +2413,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="57" spans="1:73">
+    <row r="57" spans="1:91">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2419,11 +2423,11 @@
       <c r="C57" t="s">
         <v>46</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:73">
+      <c r="BW57" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="58" spans="1:91">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2433,11 +2437,11 @@
       <c r="C58" t="s">
         <v>46</v>
       </c>
-      <c r="BR58" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="1:73">
+      <c r="BN58" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:91">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2451,7 +2455,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="60" spans="1:73">
+    <row r="60" spans="1:91">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2465,7 +2469,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="61" spans="1:73">
+    <row r="61" spans="1:91">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2475,11 +2479,11 @@
       <c r="C61" t="s">
         <v>46</v>
       </c>
-      <c r="BH61" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="62" spans="1:73">
+      <c r="AN61" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="62" spans="1:91">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2489,11 +2493,11 @@
       <c r="C62" t="s">
         <v>46</v>
       </c>
-      <c r="AT62" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="63" spans="1:73">
+      <c r="CM62" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="63" spans="1:91">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2507,7 +2511,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="64" spans="1:73">
+    <row r="64" spans="1:91">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2545,7 +2549,7 @@
       <c r="C66" t="s">
         <v>46</v>
       </c>
-      <c r="AB66" s="1" t="s">
+      <c r="L66" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2559,7 +2563,7 @@
       <c r="C67" t="s">
         <v>46</v>
       </c>
-      <c r="AL67" s="1" t="s">
+      <c r="AJ67" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2573,7 +2577,7 @@
       <c r="C68" t="s">
         <v>46</v>
       </c>
-      <c r="AS68" s="1" t="s">
+      <c r="BB68" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2601,7 +2605,7 @@
       <c r="C70" t="s">
         <v>46</v>
       </c>
-      <c r="AJ70" s="1" t="s">
+      <c r="M70" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2643,7 +2647,7 @@
       <c r="C73" t="s">
         <v>46</v>
       </c>
-      <c r="BI73" s="1" t="s">
+      <c r="T73" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2685,7 +2689,7 @@
       <c r="C76" t="s">
         <v>46</v>
       </c>
-      <c r="AZ76" s="1" t="s">
+      <c r="AQ76" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2699,7 +2703,7 @@
       <c r="C77" t="s">
         <v>46</v>
       </c>
-      <c r="BS77" s="1" t="s">
+      <c r="AD77" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2755,7 +2759,7 @@
       <c r="C81" t="s">
         <v>46</v>
       </c>
-      <c r="BB81" s="1" t="s">
+      <c r="BC81" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2769,7 +2773,7 @@
       <c r="C82" t="s">
         <v>46</v>
       </c>
-      <c r="AA82" s="1" t="s">
+      <c r="BQ82" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2783,7 +2787,7 @@
       <c r="C83" t="s">
         <v>46</v>
       </c>
-      <c r="BX83" s="1" t="s">
+      <c r="O83" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2811,7 +2815,7 @@
       <c r="C85" t="s">
         <v>46</v>
       </c>
-      <c r="AG85" s="1" t="s">
+      <c r="BX85" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2839,7 +2843,7 @@
       <c r="C87" t="s">
         <v>46</v>
       </c>
-      <c r="AO87" s="1" t="s">
+      <c r="BY87" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2853,7 +2857,7 @@
       <c r="C88" t="s">
         <v>46</v>
       </c>
-      <c r="BG88" s="1" t="s">
+      <c r="P88" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2881,7 +2885,7 @@
       <c r="C90" t="s">
         <v>46</v>
       </c>
-      <c r="Z90" s="1" t="s">
+      <c r="BI90" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2895,7 +2899,7 @@
       <c r="C91" t="s">
         <v>46</v>
       </c>
-      <c r="AF91" s="1" t="s">
+      <c r="BO91" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2909,7 +2913,7 @@
       <c r="C92" t="s">
         <v>46</v>
       </c>
-      <c r="AN92" s="1" t="s">
+      <c r="AM92" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2923,7 +2927,7 @@
       <c r="C93" t="s">
         <v>46</v>
       </c>
-      <c r="AM93" s="1" t="s">
+      <c r="BL93" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2951,7 +2955,7 @@
       <c r="C95" t="s">
         <v>46</v>
       </c>
-      <c r="AJ95" s="1" t="s">
+      <c r="BV95" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2969,7 +2973,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="97" spans="1:94">
+    <row r="97" spans="1:88">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2979,11 +2983,11 @@
       <c r="C97" t="s">
         <v>46</v>
       </c>
-      <c r="CI97" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="98" spans="1:94">
+      <c r="BI97" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" spans="1:88">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2997,7 +3001,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="99" spans="1:94">
+    <row r="99" spans="1:88">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3007,11 +3011,11 @@
       <c r="C99" t="s">
         <v>46</v>
       </c>
-      <c r="CP99" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="100" spans="1:94">
+      <c r="AG99" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="100" spans="1:88">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3021,11 +3025,11 @@
       <c r="C100" t="s">
         <v>46</v>
       </c>
-      <c r="BI100" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" spans="1:94">
+      <c r="CI100" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="101" spans="1:88">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3035,11 +3039,11 @@
       <c r="C101" t="s">
         <v>46</v>
       </c>
-      <c r="BJ101" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:94">
+      <c r="AO101" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:88">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3049,11 +3053,11 @@
       <c r="C102" t="s">
         <v>46</v>
       </c>
-      <c r="BC102" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="103" spans="1:94">
+      <c r="BL102" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="103" spans="1:88">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3063,11 +3067,11 @@
       <c r="C103" t="s">
         <v>46</v>
       </c>
-      <c r="AS103" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="104" spans="1:94">
+      <c r="AH103" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="104" spans="1:88">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3081,7 +3085,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="105" spans="1:94">
+    <row r="105" spans="1:88">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3095,7 +3099,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="106" spans="1:94">
+    <row r="106" spans="1:88">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3109,7 +3113,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="107" spans="1:94">
+    <row r="107" spans="1:88">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3119,11 +3123,11 @@
       <c r="C107" t="s">
         <v>46</v>
       </c>
-      <c r="BK107" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="108" spans="1:94">
+      <c r="R107" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:88">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3133,11 +3137,11 @@
       <c r="C108" t="s">
         <v>46</v>
       </c>
-      <c r="BP108" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="109" spans="1:94">
+      <c r="T108" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="109" spans="1:88">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3151,7 +3155,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="110" spans="1:94">
+    <row r="110" spans="1:88">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3161,11 +3165,11 @@
       <c r="C110" t="s">
         <v>46</v>
       </c>
-      <c r="K110" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="111" spans="1:94">
+      <c r="BP110" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="111" spans="1:88">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3175,11 +3179,11 @@
       <c r="C111" t="s">
         <v>100</v>
       </c>
-      <c r="CI111" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="112" spans="1:94">
+      <c r="I111" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:88">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3259,7 +3263,7 @@
       <c r="C117" t="s">
         <v>100</v>
       </c>
-      <c r="BP117" s="1" t="s">
+      <c r="CF117" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3287,7 +3291,7 @@
       <c r="C119" t="s">
         <v>100</v>
       </c>
-      <c r="K119" s="1" t="s">
+      <c r="N119" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3315,7 +3319,7 @@
       <c r="C121" t="s">
         <v>100</v>
       </c>
-      <c r="AO121" s="1" t="s">
+      <c r="BD121" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3371,7 +3375,7 @@
       <c r="C125" t="s">
         <v>100</v>
       </c>
-      <c r="CM125" s="1" t="s">
+      <c r="Z125" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3385,7 +3389,7 @@
       <c r="C126" t="s">
         <v>100</v>
       </c>
-      <c r="P126" s="1" t="s">
+      <c r="BN126" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3427,7 +3431,7 @@
       <c r="C129" t="s">
         <v>100</v>
       </c>
-      <c r="BV129" s="1" t="s">
+      <c r="AC129" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3469,7 +3473,7 @@
       <c r="C132" t="s">
         <v>116</v>
       </c>
-      <c r="I132" s="1" t="s">
+      <c r="AC132" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3511,7 +3515,7 @@
       <c r="C135" t="s">
         <v>116</v>
       </c>
-      <c r="AC135" s="1" t="s">
+      <c r="BD135" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3525,7 +3529,7 @@
       <c r="C136" t="s">
         <v>116</v>
       </c>
-      <c r="BA136" s="1" t="s">
+      <c r="AX136" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3553,7 +3557,7 @@
       <c r="C138" t="s">
         <v>116</v>
       </c>
-      <c r="BE138" s="1" t="s">
+      <c r="AZ138" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3609,7 +3613,7 @@
       <c r="C142" t="s">
         <v>116</v>
       </c>
-      <c r="AH142" s="1" t="s">
+      <c r="BG142" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3623,7 +3627,7 @@
       <c r="C143" t="s">
         <v>116</v>
       </c>
-      <c r="AR143" s="1" t="s">
+      <c r="AE143" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -3641,7 +3645,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="145" spans="1:95">
+    <row r="145" spans="1:93">
       <c r="A145">
         <v>144</v>
       </c>
@@ -3651,11 +3655,11 @@
       <c r="C145" t="s">
         <v>116</v>
       </c>
-      <c r="BU145" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="146" spans="1:95">
+      <c r="BM145" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="146" spans="1:93">
       <c r="A146">
         <v>145</v>
       </c>
@@ -3669,7 +3673,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="147" spans="1:95">
+    <row r="147" spans="1:93">
       <c r="A147">
         <v>146</v>
       </c>
@@ -3679,11 +3683,11 @@
       <c r="C147" t="s">
         <v>116</v>
       </c>
-      <c r="O147" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="148" spans="1:95">
+      <c r="AG147" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="148" spans="1:93">
       <c r="A148">
         <v>147</v>
       </c>
@@ -3697,7 +3701,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="149" spans="1:95">
+    <row r="149" spans="1:93">
       <c r="A149">
         <v>148</v>
       </c>
@@ -3707,11 +3711,11 @@
       <c r="C149" t="s">
         <v>116</v>
       </c>
-      <c r="BL149" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="150" spans="1:95">
+      <c r="AL149" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="150" spans="1:93">
       <c r="A150">
         <v>149</v>
       </c>
@@ -3721,11 +3725,11 @@
       <c r="C150" t="s">
         <v>116</v>
       </c>
-      <c r="BU150" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="151" spans="1:95">
+      <c r="CB150" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="151" spans="1:93">
       <c r="A151">
         <v>150</v>
       </c>
@@ -3735,11 +3739,11 @@
       <c r="C151" t="s">
         <v>116</v>
       </c>
-      <c r="L151" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="152" spans="1:95">
+      <c r="K151" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="152" spans="1:93">
       <c r="A152">
         <v>151</v>
       </c>
@@ -3749,11 +3753,11 @@
       <c r="C152" t="s">
         <v>116</v>
       </c>
-      <c r="CQ152" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="153" spans="1:95">
+      <c r="BW152" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="153" spans="1:93">
       <c r="A153">
         <v>152</v>
       </c>
@@ -3763,11 +3767,11 @@
       <c r="C153" t="s">
         <v>116</v>
       </c>
-      <c r="T153" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="154" spans="1:95">
+      <c r="AL153" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="154" spans="1:93">
       <c r="A154">
         <v>153</v>
       </c>
@@ -3777,11 +3781,11 @@
       <c r="C154" t="s">
         <v>116</v>
       </c>
-      <c r="AQ154" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="155" spans="1:95">
+      <c r="AB154" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="155" spans="1:93">
       <c r="A155">
         <v>154</v>
       </c>
@@ -3791,11 +3795,11 @@
       <c r="C155" t="s">
         <v>116</v>
       </c>
-      <c r="H155" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="156" spans="1:95">
+      <c r="D155" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="156" spans="1:93">
       <c r="A156">
         <v>155</v>
       </c>
@@ -3809,7 +3813,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="157" spans="1:95">
+    <row r="157" spans="1:93">
       <c r="A157">
         <v>156</v>
       </c>
@@ -3823,7 +3827,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="158" spans="1:95">
+    <row r="158" spans="1:93">
       <c r="A158">
         <v>157</v>
       </c>
@@ -3837,7 +3841,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:95">
+    <row r="159" spans="1:93">
       <c r="A159">
         <v>158</v>
       </c>
@@ -3851,7 +3855,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="160" spans="1:95">
+    <row r="160" spans="1:93">
       <c r="A160">
         <v>159</v>
       </c>
@@ -3875,7 +3879,7 @@
       <c r="C161" t="s">
         <v>116</v>
       </c>
-      <c r="X161" s="1" t="s">
+      <c r="BU161" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4001,7 +4005,7 @@
       <c r="C170" t="s">
         <v>116</v>
       </c>
-      <c r="CQ170" s="1" t="s">
+      <c r="AL170" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4029,7 +4033,7 @@
       <c r="C172" t="s">
         <v>116</v>
       </c>
-      <c r="Q172" s="1" t="s">
+      <c r="CQ172" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4057,7 +4061,7 @@
       <c r="C174" t="s">
         <v>116</v>
       </c>
-      <c r="T174" s="1" t="s">
+      <c r="AN174" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4085,7 +4089,7 @@
       <c r="C176" t="s">
         <v>116</v>
       </c>
-      <c r="BY176" s="1" t="s">
+      <c r="AM176" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4113,7 +4117,7 @@
       <c r="C178" t="s">
         <v>116</v>
       </c>
-      <c r="CJ178" s="1" t="s">
+      <c r="AV178" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4141,7 +4145,7 @@
       <c r="C180" t="s">
         <v>116</v>
       </c>
-      <c r="D180" s="1" t="s">
+      <c r="AG180" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4155,7 +4159,7 @@
       <c r="C181" t="s">
         <v>116</v>
       </c>
-      <c r="AQ181" s="1" t="s">
+      <c r="E181" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4183,7 +4187,7 @@
       <c r="C183" t="s">
         <v>116</v>
       </c>
-      <c r="AD183" s="1" t="s">
+      <c r="AW183" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4253,7 +4257,7 @@
       <c r="C188" t="s">
         <v>116</v>
       </c>
-      <c r="BH188" s="1" t="s">
+      <c r="BJ188" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4295,7 +4299,7 @@
       <c r="C191" t="s">
         <v>116</v>
       </c>
-      <c r="AU191" s="1" t="s">
+      <c r="AO191" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4337,7 +4341,7 @@
       <c r="C194" t="s">
         <v>116</v>
       </c>
-      <c r="AC194" s="1" t="s">
+      <c r="BK194" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4365,7 +4369,7 @@
       <c r="C196" t="s">
         <v>177</v>
       </c>
-      <c r="V196" s="1" t="s">
+      <c r="BP196" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4407,7 +4411,7 @@
       <c r="C199" t="s">
         <v>177</v>
       </c>
-      <c r="AN199" s="1" t="s">
+      <c r="CG199" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4435,7 +4439,7 @@
       <c r="C201" t="s">
         <v>177</v>
       </c>
-      <c r="AL201" s="1" t="s">
+      <c r="AZ201" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4449,7 +4453,7 @@
       <c r="C202" t="s">
         <v>177</v>
       </c>
-      <c r="BA202" s="1" t="s">
+      <c r="AS202" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4463,7 +4467,7 @@
       <c r="C203" t="s">
         <v>177</v>
       </c>
-      <c r="AV203" s="1" t="s">
+      <c r="BC203" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4477,7 +4481,7 @@
       <c r="C204" t="s">
         <v>177</v>
       </c>
-      <c r="CC204" s="1" t="s">
+      <c r="AF204" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4491,7 +4495,7 @@
       <c r="C205" t="s">
         <v>177</v>
       </c>
-      <c r="BS205" s="1" t="s">
+      <c r="BA205" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4505,7 +4509,7 @@
       <c r="C206" t="s">
         <v>177</v>
       </c>
-      <c r="AG206" s="1" t="s">
+      <c r="AS206" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4519,7 +4523,7 @@
       <c r="C207" t="s">
         <v>177</v>
       </c>
-      <c r="I207" s="1" t="s">
+      <c r="S207" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4575,7 +4579,7 @@
       <c r="C211" t="s">
         <v>177</v>
       </c>
-      <c r="BC211" s="1" t="s">
+      <c r="CM211" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4631,7 +4635,7 @@
       <c r="C215" t="s">
         <v>187</v>
       </c>
-      <c r="AE215" s="1" t="s">
+      <c r="L215" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4645,7 +4649,7 @@
       <c r="C216" t="s">
         <v>187</v>
       </c>
-      <c r="BH216" s="1" t="s">
+      <c r="BB216" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4659,7 +4663,7 @@
       <c r="C217" t="s">
         <v>187</v>
       </c>
-      <c r="D217" s="1" t="s">
+      <c r="AT217" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4673,7 +4677,7 @@
       <c r="C218" t="s">
         <v>187</v>
       </c>
-      <c r="K218" s="1" t="s">
+      <c r="G218" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4687,7 +4691,7 @@
       <c r="C219" t="s">
         <v>187</v>
       </c>
-      <c r="AZ219" s="1" t="s">
+      <c r="BQ219" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4715,7 +4719,7 @@
       <c r="C221" t="s">
         <v>187</v>
       </c>
-      <c r="BO221" s="1" t="s">
+      <c r="BE221" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4743,7 +4747,7 @@
       <c r="C223" t="s">
         <v>187</v>
       </c>
-      <c r="BM223" s="1" t="s">
+      <c r="BR223" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4757,11 +4761,11 @@
       <c r="C224" t="s">
         <v>187</v>
       </c>
-      <c r="AM224" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="225" spans="1:90">
+      <c r="CH224" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="225" spans="1:94">
       <c r="A225">
         <v>224</v>
       </c>
@@ -4775,7 +4779,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="226" spans="1:90">
+    <row r="226" spans="1:94">
       <c r="A226">
         <v>225</v>
       </c>
@@ -4785,11 +4789,11 @@
       <c r="C226" t="s">
         <v>187</v>
       </c>
-      <c r="N226" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="227" spans="1:90">
+      <c r="BA226" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="227" spans="1:94">
       <c r="A227">
         <v>226</v>
       </c>
@@ -4799,11 +4803,11 @@
       <c r="C227" t="s">
         <v>187</v>
       </c>
-      <c r="CA227" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="228" spans="1:90">
+      <c r="BR227" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="228" spans="1:94">
       <c r="A228">
         <v>227</v>
       </c>
@@ -4813,11 +4817,11 @@
       <c r="C228" t="s">
         <v>187</v>
       </c>
-      <c r="F228" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="229" spans="1:90">
+      <c r="AK228" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="229" spans="1:94">
       <c r="A229">
         <v>228</v>
       </c>
@@ -4831,7 +4835,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="230" spans="1:90">
+    <row r="230" spans="1:94">
       <c r="A230">
         <v>229</v>
       </c>
@@ -4841,11 +4845,11 @@
       <c r="C230" t="s">
         <v>187</v>
       </c>
-      <c r="AF230" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="231" spans="1:90">
+      <c r="H230" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="231" spans="1:94">
       <c r="A231">
         <v>230</v>
       </c>
@@ -4855,11 +4859,11 @@
       <c r="C231" t="s">
         <v>187</v>
       </c>
-      <c r="BA231" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="232" spans="1:90">
+      <c r="AL231" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="232" spans="1:94">
       <c r="A232">
         <v>231</v>
       </c>
@@ -4873,7 +4877,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="1:90">
+    <row r="233" spans="1:94">
       <c r="A233">
         <v>232</v>
       </c>
@@ -4887,7 +4891,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="234" spans="1:90">
+    <row r="234" spans="1:94">
       <c r="A234">
         <v>233</v>
       </c>
@@ -4897,11 +4901,11 @@
       <c r="C234" t="s">
         <v>187</v>
       </c>
-      <c r="G234" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="235" spans="1:90">
+      <c r="H234" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="235" spans="1:94">
       <c r="A235">
         <v>234</v>
       </c>
@@ -4911,11 +4915,11 @@
       <c r="C235" t="s">
         <v>187</v>
       </c>
-      <c r="BD235" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="236" spans="1:90">
+      <c r="CP235" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="236" spans="1:94">
       <c r="A236">
         <v>235</v>
       </c>
@@ -4929,7 +4933,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="237" spans="1:90">
+    <row r="237" spans="1:94">
       <c r="A237">
         <v>236</v>
       </c>
@@ -4939,11 +4943,11 @@
       <c r="C237" t="s">
         <v>187</v>
       </c>
-      <c r="BQ237" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="238" spans="1:90">
+      <c r="BH237" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="238" spans="1:94">
       <c r="A238">
         <v>237</v>
       </c>
@@ -4957,7 +4961,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="239" spans="1:90">
+    <row r="239" spans="1:94">
       <c r="A239">
         <v>238</v>
       </c>
@@ -4967,11 +4971,11 @@
       <c r="C239" t="s">
         <v>187</v>
       </c>
-      <c r="AT239" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="240" spans="1:90">
+      <c r="AJ239" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="240" spans="1:94">
       <c r="A240">
         <v>239</v>
       </c>
@@ -4981,11 +4985,11 @@
       <c r="C240" t="s">
         <v>187</v>
       </c>
-      <c r="BN240" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="241" spans="1:94">
+      <c r="CJ240" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="241" spans="1:92">
       <c r="A241">
         <v>240</v>
       </c>
@@ -4999,7 +5003,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="242" spans="1:94">
+    <row r="242" spans="1:92">
       <c r="A242">
         <v>241</v>
       </c>
@@ -5013,7 +5017,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="243" spans="1:94">
+    <row r="243" spans="1:92">
       <c r="A243">
         <v>242</v>
       </c>
@@ -5023,11 +5027,11 @@
       <c r="C243" t="s">
         <v>187</v>
       </c>
-      <c r="N243" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="244" spans="1:94">
+      <c r="CC243" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="244" spans="1:92">
       <c r="A244">
         <v>243</v>
       </c>
@@ -5041,7 +5045,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="245" spans="1:94">
+    <row r="245" spans="1:92">
       <c r="A245">
         <v>244</v>
       </c>
@@ -5051,11 +5055,11 @@
       <c r="C245" t="s">
         <v>187</v>
       </c>
-      <c r="BR245" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="246" spans="1:94">
+      <c r="AA245" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="246" spans="1:92">
       <c r="A246">
         <v>245</v>
       </c>
@@ -5069,7 +5073,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="247" spans="1:94">
+    <row r="247" spans="1:92">
       <c r="A247">
         <v>246</v>
       </c>
@@ -5079,11 +5083,11 @@
       <c r="C247" t="s">
         <v>187</v>
       </c>
-      <c r="W247" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="248" spans="1:94">
+      <c r="BG247" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="248" spans="1:92">
       <c r="A248">
         <v>247</v>
       </c>
@@ -5097,7 +5101,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="249" spans="1:94">
+    <row r="249" spans="1:92">
       <c r="A249">
         <v>248</v>
       </c>
@@ -5111,7 +5115,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="250" spans="1:94">
+    <row r="250" spans="1:92">
       <c r="A250">
         <v>249</v>
       </c>
@@ -5121,11 +5125,11 @@
       <c r="C250" t="s">
         <v>187</v>
       </c>
-      <c r="BF250" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="251" spans="1:94">
+      <c r="CA250" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="251" spans="1:92">
       <c r="A251">
         <v>250</v>
       </c>
@@ -5135,11 +5139,11 @@
       <c r="C251" t="s">
         <v>187</v>
       </c>
-      <c r="AW251" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="252" spans="1:94">
+      <c r="T251" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="252" spans="1:92">
       <c r="A252">
         <v>251</v>
       </c>
@@ -5153,7 +5157,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="253" spans="1:94">
+    <row r="253" spans="1:92">
       <c r="A253">
         <v>252</v>
       </c>
@@ -5163,11 +5167,11 @@
       <c r="C253" t="s">
         <v>187</v>
       </c>
-      <c r="T253" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="254" spans="1:94">
+      <c r="BF253" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="254" spans="1:92">
       <c r="A254">
         <v>253</v>
       </c>
@@ -5177,11 +5181,11 @@
       <c r="C254" t="s">
         <v>187</v>
       </c>
-      <c r="H254" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="255" spans="1:94">
+      <c r="W254" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="255" spans="1:92">
       <c r="A255">
         <v>254</v>
       </c>
@@ -5191,11 +5195,11 @@
       <c r="C255" t="s">
         <v>187</v>
       </c>
-      <c r="CG255" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="256" spans="1:94">
+      <c r="CN255" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="256" spans="1:92">
       <c r="A256">
         <v>255</v>
       </c>
@@ -5205,11 +5209,11 @@
       <c r="C256" t="s">
         <v>187</v>
       </c>
-      <c r="CP256" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="257" spans="1:91">
+      <c r="P256" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="257" spans="1:95">
       <c r="A257">
         <v>256</v>
       </c>
@@ -5219,11 +5223,11 @@
       <c r="C257" t="s">
         <v>217</v>
       </c>
-      <c r="L257" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="258" spans="1:91">
+      <c r="V257" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="258" spans="1:95">
       <c r="A258">
         <v>257</v>
       </c>
@@ -5233,11 +5237,11 @@
       <c r="C258" t="s">
         <v>217</v>
       </c>
-      <c r="AH258" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="259" spans="1:91">
+      <c r="E258" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="259" spans="1:95">
       <c r="A259">
         <v>258</v>
       </c>
@@ -5247,11 +5251,11 @@
       <c r="C259" t="s">
         <v>217</v>
       </c>
-      <c r="AB259" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="260" spans="1:91">
+      <c r="K259" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="260" spans="1:95">
       <c r="A260">
         <v>259</v>
       </c>
@@ -5265,7 +5269,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="261" spans="1:91">
+    <row r="261" spans="1:95">
       <c r="A261">
         <v>260</v>
       </c>
@@ -5275,11 +5279,11 @@
       <c r="C261" t="s">
         <v>217</v>
       </c>
-      <c r="R261" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="262" spans="1:91">
+      <c r="AM261" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="262" spans="1:95">
       <c r="A262">
         <v>261</v>
       </c>
@@ -5289,11 +5293,11 @@
       <c r="C262" t="s">
         <v>217</v>
       </c>
-      <c r="CC262" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="263" spans="1:91">
+      <c r="F262" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="263" spans="1:95">
       <c r="A263">
         <v>262</v>
       </c>
@@ -5303,11 +5307,11 @@
       <c r="C263" t="s">
         <v>217</v>
       </c>
-      <c r="BG263" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="264" spans="1:91">
+      <c r="N263" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="264" spans="1:95">
       <c r="A264">
         <v>263</v>
       </c>
@@ -5317,11 +5321,11 @@
       <c r="C264" t="s">
         <v>217</v>
       </c>
-      <c r="BL264" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="265" spans="1:91">
+      <c r="CQ264" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="265" spans="1:95">
       <c r="A265">
         <v>264</v>
       </c>
@@ -5331,11 +5335,11 @@
       <c r="C265" t="s">
         <v>217</v>
       </c>
-      <c r="CK265" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="266" spans="1:91">
+      <c r="CP265" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="266" spans="1:95">
       <c r="A266">
         <v>265</v>
       </c>
@@ -5345,11 +5349,11 @@
       <c r="C266" t="s">
         <v>217</v>
       </c>
-      <c r="BX266" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="267" spans="1:91">
+      <c r="BI266" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="267" spans="1:95">
       <c r="A267">
         <v>266</v>
       </c>
@@ -5359,11 +5363,11 @@
       <c r="C267" t="s">
         <v>217</v>
       </c>
-      <c r="M267" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="268" spans="1:91">
+      <c r="AQ267" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="268" spans="1:95">
       <c r="A268">
         <v>267</v>
       </c>
@@ -5377,7 +5381,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="269" spans="1:91">
+    <row r="269" spans="1:95">
       <c r="A269">
         <v>268</v>
       </c>
@@ -5387,11 +5391,11 @@
       <c r="C269" t="s">
         <v>217</v>
       </c>
-      <c r="T269" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="270" spans="1:91">
+      <c r="CC269" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="270" spans="1:95">
       <c r="A270">
         <v>269</v>
       </c>
@@ -5405,7 +5409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="271" spans="1:91">
+    <row r="271" spans="1:95">
       <c r="A271">
         <v>270</v>
       </c>
@@ -5415,11 +5419,11 @@
       <c r="C271" t="s">
         <v>217</v>
       </c>
-      <c r="CM271" s="1" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="272" spans="1:91">
+      <c r="AR271" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="272" spans="1:95">
       <c r="A272">
         <v>271</v>
       </c>
@@ -5429,7 +5433,7 @@
       <c r="C272" t="s">
         <v>217</v>
       </c>
-      <c r="BL272" s="1" t="s">
+      <c r="BF272" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5457,7 +5461,7 @@
       <c r="C274" t="s">
         <v>217</v>
       </c>
-      <c r="AY274" s="1" t="s">
+      <c r="I274" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5471,7 +5475,7 @@
       <c r="C275" t="s">
         <v>219</v>
       </c>
-      <c r="AF275" s="1" t="s">
+      <c r="CM275" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5527,7 +5531,7 @@
       <c r="C279" t="s">
         <v>219</v>
       </c>
-      <c r="CQ279" s="1" t="s">
+      <c r="K279" s="1" t="s">
         <v>235</v>
       </c>
     </row>
@@ -5583,7 +5587,7 @@
       <c r="C283" t="s">
         <v>219</v>
       </c>
-      <c r="CF283" s="1" t="s">
+      <c r="CQ283" s="1" t="s">
         <v>235</v>
       </c>
     </row>
